--- a/Civilworks cost/RADP Preparations/Kishoregonj/Projecttion_output.xlsx
+++ b/Civilworks cost/RADP Preparations/Kishoregonj/Projecttion_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\RADP Preparations\Kishoregonj\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Structure_Type" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <sheet name="Structure_Wise_payment" sheetId="6" r:id="rId6"/>
     <sheet name="DPP_Wise_payment" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -894,8 +899,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -920,7 +925,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -943,13 +948,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -958,6 +988,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1004,7 +1042,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1036,9 +1074,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1070,6 +1109,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1245,14 +1285,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1289,7 +1329,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1309,7 +1349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1329,7 +1369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1349,7 +1389,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1369,7 +1409,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1389,7 +1429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1409,7 +1449,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1429,7 +1469,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1449,7 +1489,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1469,7 +1509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1489,7 +1529,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1509,7 +1549,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1529,7 +1569,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1549,7 +1589,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1575,14 +1615,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1623,7 +1663,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1637,7 +1677,7 @@
         <v>225</v>
       </c>
       <c r="E2">
-        <v>2.151</v>
+        <v>2.1509999999999998</v>
       </c>
       <c r="F2">
         <v>40.94</v>
@@ -1667,7 +1707,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1684,7 +1724,7 @@
         <v>1.22</v>
       </c>
       <c r="F3">
-        <v>35.88</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1711,7 +1751,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1755,7 +1795,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1799,7 +1839,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1843,7 +1883,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1887,7 +1927,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1931,7 +1971,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1948,7 +1988,7 @@
         <v>2.98</v>
       </c>
       <c r="F9">
-        <v>31.95760891</v>
+        <v>31.957608910000001</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1975,7 +2015,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1989,10 +2029,10 @@
         <v>225</v>
       </c>
       <c r="E10">
-        <v>4.475</v>
+        <v>4.4749999999999996</v>
       </c>
       <c r="F10">
-        <v>93.43512043</v>
+        <v>93.435120429999998</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2019,7 +2059,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2033,10 +2073,10 @@
         <v>225</v>
       </c>
       <c r="E11">
-        <v>2.225</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="F11">
-        <v>52.1721892</v>
+        <v>52.172189199999998</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2063,7 +2103,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2080,7 +2120,7 @@
         <v>0.46</v>
       </c>
       <c r="F12">
-        <v>16.20103913</v>
+        <v>16.201039130000002</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2107,7 +2147,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2124,7 +2164,7 @@
         <v>2.79</v>
       </c>
       <c r="F13">
-        <v>68.85988</v>
+        <v>68.859880000000004</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2151,7 +2191,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2195,7 +2235,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2212,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>155.5114</v>
+        <v>155.51140000000001</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2239,7 +2279,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2253,10 +2293,10 @@
         <v>225</v>
       </c>
       <c r="E16">
-        <v>10.383</v>
+        <v>10.382999999999999</v>
       </c>
       <c r="F16">
-        <v>247.1255</v>
+        <v>247.12549999999999</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2283,7 +2323,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2300,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>286.8206</v>
+        <v>286.82060000000001</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2327,7 +2367,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2344,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>97.95786808717001</v>
+        <v>97.957868087170013</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2371,7 +2411,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2388,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>97.95786808717001</v>
+        <v>97.957868087170013</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2415,7 +2455,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2459,7 +2499,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2473,10 +2513,10 @@
         <v>225</v>
       </c>
       <c r="E21">
-        <v>6.471</v>
+        <v>6.4710000000000001</v>
       </c>
       <c r="F21">
-        <v>256.87133634355</v>
+        <v>256.87133634355001</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2503,7 +2543,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2547,7 +2587,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2561,10 +2601,10 @@
         <v>225</v>
       </c>
       <c r="E23">
-        <v>1.697</v>
+        <v>1.6970000000000001</v>
       </c>
       <c r="F23">
-        <v>35.28196116</v>
+        <v>35.281961160000002</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2591,7 +2631,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2605,10 +2645,10 @@
         <v>225</v>
       </c>
       <c r="E24">
-        <v>0.08299999999999996</v>
+        <v>8.2999999999999963E-2</v>
       </c>
       <c r="F24">
-        <v>4.096903668</v>
+        <v>4.0969036680000004</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2635,7 +2675,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2649,10 +2689,10 @@
         <v>225</v>
       </c>
       <c r="E25">
-        <v>0.5899999999999999</v>
+        <v>0.58999999999999986</v>
       </c>
       <c r="F25">
-        <v>8.769275011</v>
+        <v>8.7692750109999995</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2679,7 +2719,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2693,10 +2733,10 @@
         <v>225</v>
       </c>
       <c r="E26">
-        <v>7.494000000000001</v>
+        <v>7.4940000000000007</v>
       </c>
       <c r="F26">
-        <v>156.8226649</v>
+        <v>156.82266490000001</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2723,7 +2763,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2767,7 +2807,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2781,10 +2821,10 @@
         <v>225</v>
       </c>
       <c r="E28">
-        <v>0.8509999999999991</v>
+        <v>0.85099999999999909</v>
       </c>
       <c r="F28">
-        <v>17.89832048</v>
+        <v>17.898320479999999</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2811,7 +2851,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2828,7 +2868,7 @@
         <v>12.214</v>
       </c>
       <c r="F29">
-        <v>325.54</v>
+        <v>325.54000000000002</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2855,7 +2895,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2899,7 +2939,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2943,7 +2983,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2960,7 +3000,7 @@
         <v>3.99</v>
       </c>
       <c r="F32">
-        <v>99.57648424999999</v>
+        <v>99.576484249999993</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2987,7 +3027,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3031,7 +3071,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3048,7 +3088,7 @@
         <v>0.6</v>
       </c>
       <c r="F34">
-        <v>16.01544</v>
+        <v>16.015440000000002</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3075,7 +3115,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3092,7 +3132,7 @@
         <v>8.4</v>
       </c>
       <c r="F35">
-        <v>225.951733</v>
+        <v>225.95173299999999</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3119,7 +3159,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3163,7 +3203,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3180,7 +3220,7 @@
         <v>1.73</v>
       </c>
       <c r="F37">
-        <v>20.54942305</v>
+        <v>20.549423050000001</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3207,7 +3247,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3224,7 +3264,7 @@
         <v>1.615</v>
       </c>
       <c r="F38">
-        <v>26.07811217</v>
+        <v>26.078112170000001</v>
       </c>
       <c r="G38">
         <v>2.16</v>
@@ -3251,7 +3291,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3268,7 +3308,7 @@
         <v>3.6</v>
       </c>
       <c r="F39">
-        <v>46.88734591</v>
+        <v>46.887345910000001</v>
       </c>
       <c r="G39">
         <v>0.4</v>
@@ -3295,7 +3335,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3309,10 +3349,10 @@
         <v>225</v>
       </c>
       <c r="E40">
-        <v>6.854</v>
+        <v>6.8540000000000001</v>
       </c>
       <c r="F40">
-        <v>130.1183739</v>
+        <v>130.11837389999999</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3339,7 +3379,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3356,7 +3396,7 @@
         <v>6.1</v>
       </c>
       <c r="F41">
-        <v>120.331336</v>
+        <v>120.33133599999999</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3383,7 +3423,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3400,7 +3440,7 @@
         <v>5.7</v>
       </c>
       <c r="F42">
-        <v>424.0032313</v>
+        <v>424.00323129999998</v>
       </c>
       <c r="G42">
         <v>0.65</v>
@@ -3427,7 +3467,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3444,7 +3484,7 @@
         <v>10.86</v>
       </c>
       <c r="F43">
-        <v>197.6384221</v>
+        <v>197.63842210000001</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3471,7 +3511,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3515,7 +3555,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3559,7 +3599,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3603,7 +3643,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3647,7 +3687,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3691,7 +3731,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3708,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>143.61383592</v>
+        <v>143.61383592000001</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -3735,7 +3775,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3779,7 +3819,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3796,7 +3836,7 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>128.67</v>
+        <v>128.66999999999999</v>
       </c>
       <c r="G51">
         <v>0.45</v>
@@ -3823,7 +3863,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3867,7 +3907,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3911,7 +3951,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3955,7 +3995,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3999,7 +4039,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4016,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>253.89347740293</v>
+        <v>253.89347740292999</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -4043,7 +4083,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4060,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>277.03648500093</v>
+        <v>277.03648500092999</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -4087,7 +4127,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4104,7 +4144,7 @@
         <v>3.9</v>
       </c>
       <c r="F58">
-        <v>18.39699611298</v>
+        <v>18.396996112979998</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -4131,7 +4171,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4148,7 +4188,7 @@
         <v>0.6</v>
       </c>
       <c r="F59">
-        <v>4.39797137274</v>
+        <v>4.3979713727399998</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -4175,7 +4215,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4192,7 +4232,7 @@
         <v>3</v>
       </c>
       <c r="F60">
-        <v>99.25700684778</v>
+        <v>99.257006847780005</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -4219,7 +4259,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4263,7 +4303,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4277,7 +4317,7 @@
         <v>225</v>
       </c>
       <c r="E62">
-        <v>0.367</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="F62">
         <v>167.9839919838</v>
@@ -4307,7 +4347,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4351,7 +4391,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4395,7 +4435,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4412,7 +4452,7 @@
         <v>10</v>
       </c>
       <c r="F65">
-        <v>576.67</v>
+        <v>576.66999999999996</v>
       </c>
       <c r="G65">
         <v>0.4</v>
@@ -4439,7 +4479,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4483,7 +4523,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4497,7 +4537,7 @@
         <v>225</v>
       </c>
       <c r="E67">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F67">
         <v>680.42</v>
@@ -4527,7 +4567,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4571,7 +4611,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4588,7 +4628,7 @@
         <v>9</v>
       </c>
       <c r="F69">
-        <v>616.92</v>
+        <v>616.91999999999996</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -4615,7 +4655,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4659,7 +4699,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4703,7 +4743,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4747,7 +4787,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4791,7 +4831,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4808,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>217.53240973</v>
+        <v>217.53240973000001</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -4835,7 +4875,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4879,7 +4919,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4923,7 +4963,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4967,7 +5007,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5011,7 +5051,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5055,7 +5095,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5099,7 +5139,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5143,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5160,7 +5200,7 @@
         <v>25</v>
       </c>
       <c r="F82">
-        <v>274.47</v>
+        <v>274.47000000000003</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -5187,7 +5227,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5204,7 +5244,7 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>159.86056307</v>
+        <v>159.86056307000001</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -5231,7 +5271,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5275,7 +5315,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5292,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>186.82053396</v>
+        <v>186.82053396000001</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -5319,7 +5359,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5363,7 +5403,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5407,7 +5447,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5424,7 +5464,7 @@
         <v>1.51</v>
       </c>
       <c r="F88">
-        <v>35.70411195</v>
+        <v>35.704111949999998</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -5451,7 +5491,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5465,10 +5505,10 @@
         <v>225</v>
       </c>
       <c r="E89">
-        <v>0.725</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="F89">
-        <v>17.14270276</v>
+        <v>17.142702759999999</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -5495,7 +5535,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5509,10 +5549,10 @@
         <v>225</v>
       </c>
       <c r="E90">
-        <v>2.515</v>
+        <v>2.5150000000000001</v>
       </c>
       <c r="F90">
-        <v>59.467445</v>
+        <v>59.467444999999998</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -5539,7 +5579,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5553,10 +5593,10 @@
         <v>225</v>
       </c>
       <c r="E91">
-        <v>5.985</v>
+        <v>5.9850000000000003</v>
       </c>
       <c r="F91">
-        <v>141.515967</v>
+        <v>141.51596699999999</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -5583,7 +5623,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5627,7 +5667,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5644,7 +5684,7 @@
         <v>15.82</v>
       </c>
       <c r="F93">
-        <v>472.9622294067</v>
+        <v>472.96222940669998</v>
       </c>
       <c r="G93">
         <v>0.19</v>
@@ -5671,7 +5711,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5685,10 +5725,10 @@
         <v>225</v>
       </c>
       <c r="E94">
-        <v>7.113</v>
+        <v>7.1130000000000004</v>
       </c>
       <c r="F94">
-        <v>374.96375491014</v>
+        <v>374.96375491013998</v>
       </c>
       <c r="G94">
         <v>0.25</v>
@@ -5715,7 +5755,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5759,7 +5799,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5803,7 +5843,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5847,7 +5887,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5891,7 +5931,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5908,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>41.01858278</v>
+        <v>41.018582780000003</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -5935,7 +5975,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5979,7 +6019,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5996,7 +6036,7 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>41.97035412</v>
+        <v>41.970354120000003</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -6023,7 +6063,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6040,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>41.97035412</v>
+        <v>41.970354120000003</v>
       </c>
       <c r="G102">
         <v>0.75</v>
@@ -6067,7 +6107,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6087,10 +6127,10 @@
         <v>334.27</v>
       </c>
       <c r="G103">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H103">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I103" t="s">
         <v>246</v>
@@ -6111,7 +6151,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6128,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="F104">
-        <v>321.399063</v>
+        <v>321.39906300000001</v>
       </c>
       <c r="G104">
         <v>0.48</v>
@@ -6155,7 +6195,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6172,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <v>156.6820729</v>
+        <v>156.68207290000001</v>
       </c>
       <c r="G105">
         <v>0.45</v>
@@ -6199,7 +6239,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6243,7 +6283,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6257,10 +6297,10 @@
         <v>225</v>
       </c>
       <c r="E107">
-        <v>9.494</v>
+        <v>9.4939999999999998</v>
       </c>
       <c r="F107">
-        <v>329.1073925735099</v>
+        <v>329.10739257350991</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -6287,7 +6327,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6301,10 +6341,10 @@
         <v>225</v>
       </c>
       <c r="E108">
-        <v>10.463</v>
+        <v>10.462999999999999</v>
       </c>
       <c r="F108">
-        <v>235.99241562002</v>
+        <v>235.99241562002001</v>
       </c>
       <c r="G108">
         <v>0.8</v>
@@ -6331,7 +6371,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6375,7 +6415,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6419,7 +6459,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6436,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="F111">
-        <v>5.881366283</v>
+        <v>5.8813662830000002</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -6463,7 +6503,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6477,10 +6517,10 @@
         <v>225</v>
       </c>
       <c r="E112">
-        <v>0.584</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="F112">
-        <v>8.138946785</v>
+        <v>8.1389467849999999</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -6507,7 +6547,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6524,7 +6564,7 @@
         <v>2.9</v>
       </c>
       <c r="F113">
-        <v>84.879744</v>
+        <v>84.879744000000002</v>
       </c>
       <c r="G113">
         <v>0.16</v>
@@ -6551,7 +6591,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6595,7 +6635,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6612,7 +6652,7 @@
         <v>1.9</v>
       </c>
       <c r="F115">
-        <v>2.446347445</v>
+        <v>2.4463474449999998</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -6639,7 +6679,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6656,7 +6696,7 @@
         <v>1.7</v>
       </c>
       <c r="F116">
-        <v>14.607285</v>
+        <v>14.607284999999999</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -6683,7 +6723,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6700,7 +6740,7 @@
         <v>0.439</v>
       </c>
       <c r="F117">
-        <v>4.459192214</v>
+        <v>4.4591922139999998</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -6727,7 +6767,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6771,7 +6811,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6788,7 +6828,7 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>36.6619917794</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -6815,7 +6855,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6832,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <v>36.6619917794</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6859,7 +6899,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6876,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <v>36.6619917794</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6903,7 +6943,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6947,7 +6987,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6964,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>295.52623265906</v>
+        <v>295.52623265905999</v>
       </c>
       <c r="G123">
         <v>0.85</v>
@@ -6991,7 +7031,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7008,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>227.0603541915999</v>
+        <v>227.06035419159991</v>
       </c>
       <c r="G124">
         <v>0.95</v>
@@ -7035,7 +7075,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7049,10 +7089,10 @@
         <v>225</v>
       </c>
       <c r="E125">
-        <v>1.775</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="F125">
-        <v>28.57718902755</v>
+        <v>28.577189027549998</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -7079,7 +7119,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7096,7 +7136,7 @@
         <v>0.15</v>
       </c>
       <c r="F126">
-        <v>3.86036722576</v>
+        <v>3.8603672257600001</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -7123,7 +7163,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7140,7 +7180,7 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <v>38.92932327296001</v>
+        <v>38.929323272960012</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -7167,7 +7207,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7184,7 +7224,7 @@
         <v>4</v>
       </c>
       <c r="F128">
-        <v>62.86197823855999</v>
+        <v>62.861978238559992</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -7211,7 +7251,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7255,7 +7295,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7272,7 +7312,7 @@
         <v>1</v>
       </c>
       <c r="F130">
-        <v>405.9370896767701</v>
+        <v>405.93708967677009</v>
       </c>
       <c r="G130">
         <v>0.65</v>
@@ -7299,7 +7339,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7316,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <v>320.0345936</v>
+        <v>320.03459359999999</v>
       </c>
       <c r="G131">
         <v>0.88</v>
@@ -7343,7 +7383,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7360,7 +7400,7 @@
         <v>1.65</v>
       </c>
       <c r="F132">
-        <v>54.40354011</v>
+        <v>54.403540110000002</v>
       </c>
       <c r="G132">
         <v>0.36</v>
@@ -7387,7 +7427,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7431,7 +7471,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7448,7 +7488,7 @@
         <v>1</v>
       </c>
       <c r="F134">
-        <v>288.0794856939301</v>
+        <v>288.07948569393011</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -7475,7 +7515,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7492,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="F135">
-        <v>189.52974883929</v>
+        <v>189.52974883928999</v>
       </c>
       <c r="G135">
         <v>0.65</v>
@@ -7519,7 +7559,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7536,7 +7576,7 @@
         <v>1</v>
       </c>
       <c r="F136">
-        <v>41.82212335</v>
+        <v>41.822123349999998</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -7563,7 +7603,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7607,7 +7647,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7651,7 +7691,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7668,7 +7708,7 @@
         <v>3.96</v>
       </c>
       <c r="F139">
-        <v>71.52641001000001</v>
+        <v>71.526410010000006</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -7695,7 +7735,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7739,7 +7779,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7753,10 +7793,10 @@
         <v>225</v>
       </c>
       <c r="E141">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F141">
-        <v>16.387824</v>
+        <v>16.387823999999998</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -7783,7 +7823,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7827,7 +7867,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7871,7 +7911,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7915,7 +7955,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7959,7 +7999,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -8003,7 +8043,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -8053,14 +8093,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>269</v>
       </c>
@@ -8071,7 +8111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -8085,7 +8125,7 @@
         <v>51.09</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -8099,7 +8139,7 @@
         <v>347.71</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -8110,10 +8150,10 @@
         <v>230</v>
       </c>
       <c r="D4">
-        <v>625.9299999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>625.92999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -8124,10 +8164,10 @@
         <v>231</v>
       </c>
       <c r="D5">
-        <v>714.6900000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>714.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -8141,7 +8181,7 @@
         <v>575.15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -8155,7 +8195,7 @@
         <v>837.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -8166,10 +8206,10 @@
         <v>234</v>
       </c>
       <c r="D8">
-        <v>565.0700000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>565.07000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -8183,7 +8223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8197,7 +8237,7 @@
         <v>712.33</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8211,7 +8251,7 @@
         <v>409.68</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8225,7 +8265,7 @@
         <v>522.86</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8239,7 +8279,7 @@
         <v>705.59</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8250,10 +8290,10 @@
         <v>239</v>
       </c>
       <c r="D14">
-        <v>647.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>647.20000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8267,7 +8307,7 @@
         <v>806.89</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8281,7 +8321,7 @@
         <v>333.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8295,7 +8335,7 @@
         <v>721.62</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8309,7 +8349,7 @@
         <v>1451.95</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8323,7 +8363,7 @@
         <v>711.02</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8337,7 +8377,7 @@
         <v>331.35</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8351,7 +8391,7 @@
         <v>501.12</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8365,7 +8405,7 @@
         <v>268.24</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8379,7 +8419,7 @@
         <v>281.05</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8393,7 +8433,7 @@
         <v>720.33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8407,7 +8447,7 @@
         <v>890.42</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8421,7 +8461,7 @@
         <v>749.37</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8435,7 +8475,7 @@
         <v>501.12</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8449,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8463,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8477,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8491,7 +8531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8505,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8519,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -8533,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -8547,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -8561,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -8575,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -8589,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -8609,14 +8649,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -8654,7 +8694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -8671,7 +8711,7 @@
         <v>225</v>
       </c>
       <c r="F2">
-        <v>2.151</v>
+        <v>2.1509999999999998</v>
       </c>
       <c r="G2">
         <v>40.94</v>
@@ -8695,7 +8735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -8715,7 +8755,7 @@
         <v>1.22</v>
       </c>
       <c r="G3">
-        <v>35.88</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -8724,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>35.88</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="K3">
-        <v>35.88</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -8736,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -8777,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -8818,7 +8858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -8859,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -8900,7 +8940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -8941,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -8961,7 +9001,7 @@
         <v>2.98</v>
       </c>
       <c r="G9">
-        <v>31.95760891</v>
+        <v>31.957608910000001</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -8970,10 +9010,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>31.95760891</v>
+        <v>31.957608910000001</v>
       </c>
       <c r="K9">
-        <v>31.95760891</v>
+        <v>31.957608910000001</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -8982,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8999,10 +9039,10 @@
         <v>225</v>
       </c>
       <c r="F10">
-        <v>4.475</v>
+        <v>4.4749999999999996</v>
       </c>
       <c r="G10">
-        <v>93.43512043</v>
+        <v>93.435120429999998</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -9011,10 +9051,10 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>93.43512043</v>
+        <v>93.435120429999998</v>
       </c>
       <c r="K10">
-        <v>93.43512043</v>
+        <v>93.435120429999998</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -9023,7 +9063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -9040,10 +9080,10 @@
         <v>225</v>
       </c>
       <c r="F11">
-        <v>2.225</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="G11">
-        <v>52.1721892</v>
+        <v>52.172189199999998</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -9052,10 +9092,10 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>52.1721892</v>
+        <v>52.172189199999998</v>
       </c>
       <c r="K11">
-        <v>52.1721892</v>
+        <v>52.172189199999998</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -9064,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -9084,7 +9124,7 @@
         <v>0.46</v>
       </c>
       <c r="G12">
-        <v>16.20103913</v>
+        <v>16.201039130000002</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -9093,10 +9133,10 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>16.20103913</v>
+        <v>16.201039130000002</v>
       </c>
       <c r="K12">
-        <v>16.20103913</v>
+        <v>16.201039130000002</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -9105,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -9125,7 +9165,7 @@
         <v>2.79</v>
       </c>
       <c r="G13">
-        <v>68.85988</v>
+        <v>68.859880000000004</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -9134,10 +9174,10 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>68.85988</v>
+        <v>68.859880000000004</v>
       </c>
       <c r="K13">
-        <v>68.85988</v>
+        <v>68.859880000000004</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -9146,7 +9186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -9187,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -9207,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>155.5114</v>
+        <v>155.51140000000001</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -9216,10 +9256,10 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>155.5114</v>
+        <v>155.51140000000001</v>
       </c>
       <c r="K15">
-        <v>155.5114</v>
+        <v>155.51140000000001</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -9228,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9245,10 +9285,10 @@
         <v>225</v>
       </c>
       <c r="F16">
-        <v>10.383</v>
+        <v>10.382999999999999</v>
       </c>
       <c r="G16">
-        <v>247.1255</v>
+        <v>247.12549999999999</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -9257,10 +9297,10 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>247.1255</v>
+        <v>247.12549999999999</v>
       </c>
       <c r="K16">
-        <v>247.1255</v>
+        <v>247.12549999999999</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -9269,7 +9309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -9289,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>286.8206</v>
+        <v>286.82060000000001</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -9298,10 +9338,10 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>286.8206</v>
+        <v>286.82060000000001</v>
       </c>
       <c r="K17">
-        <v>286.8206</v>
+        <v>286.82060000000001</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -9310,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -9330,7 +9370,7 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>97.95786808717001</v>
+        <v>97.957868087170013</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -9339,10 +9379,10 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>97.95786808717001</v>
+        <v>97.957868087170013</v>
       </c>
       <c r="K18">
-        <v>97.95786808717001</v>
+        <v>97.957868087170013</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -9351,7 +9391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -9371,7 +9411,7 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>97.95786808717001</v>
+        <v>97.957868087170013</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -9380,10 +9420,10 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>97.95786808717001</v>
+        <v>97.957868087170013</v>
       </c>
       <c r="K19">
-        <v>97.95786808717001</v>
+        <v>97.957868087170013</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -9392,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -9433,7 +9473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -9450,10 +9490,10 @@
         <v>225</v>
       </c>
       <c r="F21">
-        <v>6.471</v>
+        <v>6.4710000000000001</v>
       </c>
       <c r="G21">
-        <v>256.87133634355</v>
+        <v>256.87133634355001</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -9462,10 +9502,10 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>256.87133634355</v>
+        <v>256.87133634355001</v>
       </c>
       <c r="K21">
-        <v>256.87133634355</v>
+        <v>256.87133634355001</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -9474,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -9515,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -9532,10 +9572,10 @@
         <v>225</v>
       </c>
       <c r="F23">
-        <v>1.697</v>
+        <v>1.6970000000000001</v>
       </c>
       <c r="G23">
-        <v>35.28196116</v>
+        <v>35.281961160000002</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -9544,10 +9584,10 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>35.28196116</v>
+        <v>35.281961160000002</v>
       </c>
       <c r="K23">
-        <v>35.28196116</v>
+        <v>35.281961160000002</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -9556,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -9573,10 +9613,10 @@
         <v>225</v>
       </c>
       <c r="F24">
-        <v>0.08299999999999996</v>
+        <v>8.2999999999999963E-2</v>
       </c>
       <c r="G24">
-        <v>4.096903668</v>
+        <v>4.0969036680000004</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -9585,10 +9625,10 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4.096903668</v>
+        <v>4.0969036680000004</v>
       </c>
       <c r="K24">
-        <v>4.096903668</v>
+        <v>4.0969036680000004</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -9597,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -9614,10 +9654,10 @@
         <v>225</v>
       </c>
       <c r="F25">
-        <v>0.5899999999999999</v>
+        <v>0.58999999999999986</v>
       </c>
       <c r="G25">
-        <v>8.769275011</v>
+        <v>8.7692750109999995</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -9629,16 +9669,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.769275011</v>
+        <v>8.7692750109999995</v>
       </c>
       <c r="L25">
-        <v>8.769275011</v>
+        <v>8.7692750109999995</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -9655,10 +9695,10 @@
         <v>225</v>
       </c>
       <c r="F26">
-        <v>7.494000000000001</v>
+        <v>7.4940000000000007</v>
       </c>
       <c r="G26">
-        <v>156.8226649</v>
+        <v>156.82266490000001</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -9667,10 +9707,10 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>156.8226649</v>
+        <v>156.82266490000001</v>
       </c>
       <c r="K26">
-        <v>156.8226649</v>
+        <v>156.82266490000001</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -9679,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -9720,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -9737,10 +9777,10 @@
         <v>225</v>
       </c>
       <c r="F28">
-        <v>0.8509999999999991</v>
+        <v>0.85099999999999909</v>
       </c>
       <c r="G28">
-        <v>17.89832048</v>
+        <v>17.898320479999999</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -9749,10 +9789,10 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>17.89832048</v>
+        <v>17.898320479999999</v>
       </c>
       <c r="K28">
-        <v>17.89832048</v>
+        <v>17.898320479999999</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -9761,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -9781,7 +9821,7 @@
         <v>12.214</v>
       </c>
       <c r="G29">
-        <v>325.54</v>
+        <v>325.54000000000002</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -9790,10 +9830,10 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>325.54</v>
+        <v>325.54000000000002</v>
       </c>
       <c r="K29">
-        <v>325.54</v>
+        <v>325.54000000000002</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -9802,7 +9842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -9843,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -9884,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -9904,7 +9944,7 @@
         <v>3.99</v>
       </c>
       <c r="G32">
-        <v>99.57648424999999</v>
+        <v>99.576484249999993</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -9913,10 +9953,10 @@
         <v>1</v>
       </c>
       <c r="J32">
-        <v>99.57648424999999</v>
+        <v>99.576484249999993</v>
       </c>
       <c r="K32">
-        <v>99.57648424999999</v>
+        <v>99.576484249999993</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -9925,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9966,7 +10006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9986,7 +10026,7 @@
         <v>0.6</v>
       </c>
       <c r="G34">
-        <v>16.01544</v>
+        <v>16.015440000000002</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -9995,10 +10035,10 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>16.01544</v>
+        <v>16.015440000000002</v>
       </c>
       <c r="K34">
-        <v>16.01544</v>
+        <v>16.015440000000002</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -10007,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -10027,7 +10067,7 @@
         <v>8.4</v>
       </c>
       <c r="G35">
-        <v>225.951733</v>
+        <v>225.95173299999999</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -10036,10 +10076,10 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>225.951733</v>
+        <v>225.95173299999999</v>
       </c>
       <c r="K35">
-        <v>225.951733</v>
+        <v>225.95173299999999</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -10048,7 +10088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -10089,7 +10129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -10109,7 +10149,7 @@
         <v>1.73</v>
       </c>
       <c r="G37">
-        <v>20.54942305</v>
+        <v>20.549423050000001</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -10130,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -10150,7 +10190,7 @@
         <v>1.615</v>
       </c>
       <c r="G38">
-        <v>26.07811217</v>
+        <v>26.078112170000001</v>
       </c>
       <c r="H38">
         <v>2.16</v>
@@ -10159,10 +10199,10 @@
         <v>2.16</v>
       </c>
       <c r="J38">
-        <v>56.32872228720001</v>
+        <v>56.328722287200009</v>
       </c>
       <c r="K38">
-        <v>56.32872228720001</v>
+        <v>56.328722287200009</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -10171,7 +10211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -10191,7 +10231,7 @@
         <v>3.6</v>
       </c>
       <c r="G39">
-        <v>46.88734591</v>
+        <v>46.887345910000001</v>
       </c>
       <c r="H39">
         <v>0.4</v>
@@ -10200,10 +10240,10 @@
         <v>0.4</v>
       </c>
       <c r="J39">
-        <v>18.754938364</v>
+        <v>18.754938364000001</v>
       </c>
       <c r="K39">
-        <v>18.754938364</v>
+        <v>18.754938364000001</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -10212,7 +10252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -10229,10 +10269,10 @@
         <v>225</v>
       </c>
       <c r="F40">
-        <v>6.854</v>
+        <v>6.8540000000000001</v>
       </c>
       <c r="G40">
-        <v>130.1183739</v>
+        <v>130.11837389999999</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -10241,10 +10281,10 @@
         <v>1</v>
       </c>
       <c r="J40">
-        <v>130.1183739</v>
+        <v>130.11837389999999</v>
       </c>
       <c r="K40">
-        <v>130.1183739</v>
+        <v>130.11837389999999</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -10253,7 +10293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -10273,7 +10313,7 @@
         <v>6.1</v>
       </c>
       <c r="G41">
-        <v>120.331336</v>
+        <v>120.33133599999999</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -10282,10 +10322,10 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>120.331336</v>
+        <v>120.33133599999999</v>
       </c>
       <c r="K41">
-        <v>120.331336</v>
+        <v>120.33133599999999</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -10294,7 +10334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -10314,7 +10354,7 @@
         <v>5.7</v>
       </c>
       <c r="G42">
-        <v>424.0032313</v>
+        <v>424.00323129999998</v>
       </c>
       <c r="H42">
         <v>0.65</v>
@@ -10326,16 +10366,16 @@
         <v>275.602100345</v>
       </c>
       <c r="K42">
-        <v>424.0032313</v>
+        <v>424.00323129999998</v>
       </c>
       <c r="L42">
-        <v>148.401130955</v>
+        <v>148.40113095500001</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -10355,7 +10395,7 @@
         <v>10.86</v>
       </c>
       <c r="G43">
-        <v>197.6384221</v>
+        <v>197.63842210000001</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -10376,7 +10416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -10408,16 +10448,16 @@
         <v>2.8264</v>
       </c>
       <c r="K44">
-        <v>7.066</v>
+        <v>7.0659999999999998</v>
       </c>
       <c r="L44">
-        <v>4.239599999999999</v>
+        <v>4.2395999999999994</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -10458,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -10499,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -10540,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -10581,7 +10621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -10601,7 +10641,7 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>143.61383592</v>
+        <v>143.61383592000001</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -10610,10 +10650,10 @@
         <v>1</v>
       </c>
       <c r="J49">
-        <v>143.61383592</v>
+        <v>143.61383592000001</v>
       </c>
       <c r="K49">
-        <v>143.61383592</v>
+        <v>143.61383592000001</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -10622,7 +10662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -10654,16 +10694,16 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>89.2775</v>
+        <v>89.277500000000003</v>
       </c>
       <c r="L50">
-        <v>89.2775</v>
+        <v>89.277500000000003</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -10683,7 +10723,7 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>128.67</v>
+        <v>128.66999999999999</v>
       </c>
       <c r="H51">
         <v>0.45</v>
@@ -10692,19 +10732,19 @@
         <v>1</v>
       </c>
       <c r="J51">
-        <v>57.9015</v>
+        <v>57.901499999999999</v>
       </c>
       <c r="K51">
-        <v>128.67</v>
+        <v>128.66999999999999</v>
       </c>
       <c r="L51">
-        <v>70.76849999999999</v>
+        <v>70.768499999999989</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -10733,19 +10773,19 @@
         <v>1</v>
       </c>
       <c r="J52">
-        <v>175.3984</v>
+        <v>175.39840000000001</v>
       </c>
       <c r="K52">
         <v>274.06</v>
       </c>
       <c r="L52">
-        <v>98.66159999999999</v>
+        <v>98.661599999999993</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -10786,7 +10826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -10815,19 +10855,19 @@
         <v>1</v>
       </c>
       <c r="J54">
-        <v>260.7655</v>
+        <v>260.76549999999997</v>
       </c>
       <c r="K54">
         <v>274.49</v>
       </c>
       <c r="L54">
-        <v>13.72450000000003</v>
+        <v>13.724500000000029</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -10868,7 +10908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -10888,7 +10928,7 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>253.89347740293</v>
+        <v>253.89347740292999</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -10897,10 +10937,10 @@
         <v>1</v>
       </c>
       <c r="J56">
-        <v>253.89347740293</v>
+        <v>253.89347740292999</v>
       </c>
       <c r="K56">
-        <v>253.89347740293</v>
+        <v>253.89347740292999</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -10909,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -10929,7 +10969,7 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>277.03648500093</v>
+        <v>277.03648500092999</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -10938,10 +10978,10 @@
         <v>1</v>
       </c>
       <c r="J57">
-        <v>277.03648500093</v>
+        <v>277.03648500092999</v>
       </c>
       <c r="K57">
-        <v>277.03648500093</v>
+        <v>277.03648500092999</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -10950,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -10970,7 +11010,7 @@
         <v>3.9</v>
       </c>
       <c r="G58">
-        <v>18.39699611298</v>
+        <v>18.396996112979998</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -10991,7 +11031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -11011,7 +11051,7 @@
         <v>0.6</v>
       </c>
       <c r="G59">
-        <v>4.39797137274</v>
+        <v>4.3979713727399998</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -11020,10 +11060,10 @@
         <v>1</v>
       </c>
       <c r="J59">
-        <v>4.39797137274</v>
+        <v>4.3979713727399998</v>
       </c>
       <c r="K59">
-        <v>4.39797137274</v>
+        <v>4.3979713727399998</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -11032,7 +11072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -11052,7 +11092,7 @@
         <v>3</v>
       </c>
       <c r="G60">
-        <v>99.25700684778</v>
+        <v>99.257006847780005</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -11061,10 +11101,10 @@
         <v>1</v>
       </c>
       <c r="J60">
-        <v>99.25700684778</v>
+        <v>99.257006847780005</v>
       </c>
       <c r="K60">
-        <v>99.25700684778</v>
+        <v>99.257006847780005</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -11073,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -11114,7 +11154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -11131,7 +11171,7 @@
         <v>225</v>
       </c>
       <c r="F62">
-        <v>0.367</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="G62">
         <v>167.9839919838</v>
@@ -11155,7 +11195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -11184,19 +11224,19 @@
         <v>1</v>
       </c>
       <c r="J63">
-        <v>221.312</v>
+        <v>221.31200000000001</v>
       </c>
       <c r="K63">
         <v>232.96</v>
       </c>
       <c r="L63">
-        <v>11.64800000000002</v>
+        <v>11.648000000000019</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -11231,13 +11271,13 @@
         <v>193</v>
       </c>
       <c r="L64">
-        <v>9.650000000000006</v>
+        <v>9.6500000000000057</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -11257,7 +11297,7 @@
         <v>10</v>
       </c>
       <c r="G65">
-        <v>576.67</v>
+        <v>576.66999999999996</v>
       </c>
       <c r="H65">
         <v>0.4</v>
@@ -11266,19 +11306,19 @@
         <v>1</v>
       </c>
       <c r="J65">
-        <v>230.668</v>
+        <v>230.66800000000001</v>
       </c>
       <c r="K65">
-        <v>576.67</v>
+        <v>576.66999999999996</v>
       </c>
       <c r="L65">
-        <v>346.002</v>
+        <v>346.00200000000001</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -11313,13 +11353,13 @@
         <v>176.58</v>
       </c>
       <c r="L66">
-        <v>8.829000000000008</v>
+        <v>8.8290000000000077</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -11336,7 +11376,7 @@
         <v>225</v>
       </c>
       <c r="F67">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G67">
         <v>680.42</v>
@@ -11348,19 +11388,19 @@
         <v>1</v>
       </c>
       <c r="J67">
-        <v>585.1612</v>
+        <v>585.16120000000001</v>
       </c>
       <c r="K67">
         <v>680.42</v>
       </c>
       <c r="L67">
-        <v>95.25879999999995</v>
+        <v>95.258799999999951</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -11401,7 +11441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -11421,7 +11461,7 @@
         <v>9</v>
       </c>
       <c r="G69">
-        <v>616.92</v>
+        <v>616.91999999999996</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -11430,10 +11470,10 @@
         <v>1</v>
       </c>
       <c r="J69">
-        <v>616.92</v>
+        <v>616.91999999999996</v>
       </c>
       <c r="K69">
-        <v>616.92</v>
+        <v>616.91999999999996</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -11442,7 +11482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -11471,19 +11511,19 @@
         <v>1</v>
       </c>
       <c r="J70">
-        <v>227.698</v>
+        <v>227.69800000000001</v>
       </c>
       <c r="K70">
         <v>267.88</v>
       </c>
       <c r="L70">
-        <v>40.18200000000002</v>
+        <v>40.182000000000023</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -11524,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -11565,7 +11605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -11606,7 +11646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -11626,7 +11666,7 @@
         <v>1</v>
       </c>
       <c r="G74">
-        <v>217.53240973</v>
+        <v>217.53240973000001</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -11635,10 +11675,10 @@
         <v>1</v>
       </c>
       <c r="J74">
-        <v>217.53240973</v>
+        <v>217.53240973000001</v>
       </c>
       <c r="K74">
-        <v>217.53240973</v>
+        <v>217.53240973000001</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -11647,7 +11687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -11688,7 +11728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -11729,7 +11769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -11770,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -11811,7 +11851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -11852,7 +11892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -11893,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -11934,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -11954,7 +11994,7 @@
         <v>25</v>
       </c>
       <c r="G82">
-        <v>274.47</v>
+        <v>274.47000000000003</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -11963,10 +12003,10 @@
         <v>1</v>
       </c>
       <c r="J82">
-        <v>274.47</v>
+        <v>274.47000000000003</v>
       </c>
       <c r="K82">
-        <v>274.47</v>
+        <v>274.47000000000003</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -11975,7 +12015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -11995,7 +12035,7 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <v>159.86056307</v>
+        <v>159.86056307000001</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -12007,16 +12047,16 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>159.86056307</v>
+        <v>159.86056307000001</v>
       </c>
       <c r="L83">
-        <v>159.86056307</v>
+        <v>159.86056307000001</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -12051,13 +12091,13 @@
         <v>161.42945938</v>
       </c>
       <c r="L84">
-        <v>32.28589187599999</v>
+        <v>32.285891875999987</v>
       </c>
       <c r="M84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -12077,7 +12117,7 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>186.82053396</v>
+        <v>186.82053396000001</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -12086,10 +12126,10 @@
         <v>1</v>
       </c>
       <c r="J85">
-        <v>186.82053396</v>
+        <v>186.82053396000001</v>
       </c>
       <c r="K85">
-        <v>186.82053396</v>
+        <v>186.82053396000001</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -12098,7 +12138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -12127,19 +12167,19 @@
         <v>1</v>
       </c>
       <c r="J86">
-        <v>212.469852408</v>
+        <v>212.46985240800001</v>
       </c>
       <c r="K86">
         <v>265.58731551</v>
       </c>
       <c r="L86">
-        <v>53.11746310199999</v>
+        <v>53.117463101999988</v>
       </c>
       <c r="M86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -12180,7 +12220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -12200,7 +12240,7 @@
         <v>1.51</v>
       </c>
       <c r="G88">
-        <v>35.70411195</v>
+        <v>35.704111949999998</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -12209,10 +12249,10 @@
         <v>1</v>
       </c>
       <c r="J88">
-        <v>35.70411195</v>
+        <v>35.704111949999998</v>
       </c>
       <c r="K88">
-        <v>35.70411195</v>
+        <v>35.704111949999998</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -12221,7 +12261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -12238,10 +12278,10 @@
         <v>225</v>
       </c>
       <c r="F89">
-        <v>0.725</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="G89">
-        <v>17.14270276</v>
+        <v>17.142702759999999</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -12250,10 +12290,10 @@
         <v>1</v>
       </c>
       <c r="J89">
-        <v>17.14270276</v>
+        <v>17.142702759999999</v>
       </c>
       <c r="K89">
-        <v>17.14270276</v>
+        <v>17.142702759999999</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -12262,7 +12302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -12279,10 +12319,10 @@
         <v>225</v>
       </c>
       <c r="F90">
-        <v>2.515</v>
+        <v>2.5150000000000001</v>
       </c>
       <c r="G90">
-        <v>59.467445</v>
+        <v>59.467444999999998</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -12291,10 +12331,10 @@
         <v>1</v>
       </c>
       <c r="J90">
-        <v>59.467445</v>
+        <v>59.467444999999998</v>
       </c>
       <c r="K90">
-        <v>59.467445</v>
+        <v>59.467444999999998</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -12303,7 +12343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -12320,10 +12360,10 @@
         <v>225</v>
       </c>
       <c r="F91">
-        <v>5.985</v>
+        <v>5.9850000000000003</v>
       </c>
       <c r="G91">
-        <v>141.515967</v>
+        <v>141.51596699999999</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -12335,16 +12375,16 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>141.515967</v>
+        <v>141.51596699999999</v>
       </c>
       <c r="L91">
-        <v>141.515967</v>
+        <v>141.51596699999999</v>
       </c>
       <c r="M91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -12385,7 +12425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -12405,7 +12445,7 @@
         <v>15.82</v>
       </c>
       <c r="G93">
-        <v>472.9622294067</v>
+        <v>472.96222940669998</v>
       </c>
       <c r="H93">
         <v>0.19</v>
@@ -12414,19 +12454,19 @@
         <v>1</v>
       </c>
       <c r="J93">
-        <v>89.862823587273</v>
+        <v>89.862823587272999</v>
       </c>
       <c r="K93">
-        <v>472.9622294067</v>
+        <v>472.96222940669998</v>
       </c>
       <c r="L93">
-        <v>383.099405819427</v>
+        <v>383.09940581942698</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -12443,10 +12483,10 @@
         <v>225</v>
       </c>
       <c r="F94">
-        <v>7.113</v>
+        <v>7.1130000000000004</v>
       </c>
       <c r="G94">
-        <v>374.96375491014</v>
+        <v>374.96375491013998</v>
       </c>
       <c r="H94">
         <v>0.25</v>
@@ -12458,16 +12498,16 @@
         <v>93.74093872753501</v>
       </c>
       <c r="K94">
-        <v>374.96375491014</v>
+        <v>374.96375491013998</v>
       </c>
       <c r="L94">
-        <v>281.222816182605</v>
+        <v>281.22281618260502</v>
       </c>
       <c r="M94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -12508,7 +12548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -12549,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -12590,7 +12630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -12631,7 +12671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -12651,7 +12691,7 @@
         <v>1</v>
       </c>
       <c r="G99">
-        <v>41.01858278</v>
+        <v>41.018582780000003</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -12660,10 +12700,10 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>41.01858278</v>
+        <v>41.018582780000003</v>
       </c>
       <c r="K99">
-        <v>41.01858278</v>
+        <v>41.018582780000003</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -12672,7 +12712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -12713,7 +12753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -12733,7 +12773,7 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <v>41.97035412</v>
+        <v>41.970354120000003</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -12742,10 +12782,10 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>41.97035412</v>
+        <v>41.970354120000003</v>
       </c>
       <c r="K101">
-        <v>41.97035412</v>
+        <v>41.970354120000003</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -12754,7 +12794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -12774,7 +12814,7 @@
         <v>1</v>
       </c>
       <c r="G102">
-        <v>41.97035412</v>
+        <v>41.970354120000003</v>
       </c>
       <c r="H102">
         <v>0.75</v>
@@ -12783,19 +12823,19 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>31.47776559</v>
+        <v>31.477765590000001</v>
       </c>
       <c r="K102">
-        <v>41.97035412</v>
+        <v>41.970354120000003</v>
       </c>
       <c r="L102">
-        <v>10.49258853</v>
+        <v>10.492588530000001</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -12818,16 +12858,16 @@
         <v>334.27</v>
       </c>
       <c r="H103">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I103">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J103">
-        <v>190.5339</v>
+        <v>190.53389999999999</v>
       </c>
       <c r="K103">
-        <v>190.5339</v>
+        <v>190.53389999999999</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -12836,7 +12876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -12856,7 +12896,7 @@
         <v>1</v>
       </c>
       <c r="G104">
-        <v>321.399063</v>
+        <v>321.39906300000001</v>
       </c>
       <c r="H104">
         <v>0.48</v>
@@ -12865,10 +12905,10 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>154.27155024</v>
+        <v>154.27155024000001</v>
       </c>
       <c r="K104">
-        <v>321.399063</v>
+        <v>321.39906300000001</v>
       </c>
       <c r="L104">
         <v>167.12751276</v>
@@ -12877,7 +12917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -12897,7 +12937,7 @@
         <v>1</v>
       </c>
       <c r="G105">
-        <v>156.6820729</v>
+        <v>156.68207290000001</v>
       </c>
       <c r="H105">
         <v>0.45</v>
@@ -12906,19 +12946,19 @@
         <v>1</v>
       </c>
       <c r="J105">
-        <v>70.50693280500001</v>
+        <v>70.506932805000005</v>
       </c>
       <c r="K105">
-        <v>156.6820729</v>
+        <v>156.68207290000001</v>
       </c>
       <c r="L105">
-        <v>86.175140095</v>
+        <v>86.175140095000003</v>
       </c>
       <c r="M105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -12959,7 +12999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -12976,10 +13016,10 @@
         <v>225</v>
       </c>
       <c r="F107">
-        <v>9.494</v>
+        <v>9.4939999999999998</v>
       </c>
       <c r="G107">
-        <v>329.1073925735099</v>
+        <v>329.10739257350991</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -12991,16 +13031,16 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>329.1073925735099</v>
+        <v>329.10739257350991</v>
       </c>
       <c r="L107">
-        <v>329.1073925735099</v>
+        <v>329.10739257350991</v>
       </c>
       <c r="M107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -13017,10 +13057,10 @@
         <v>225</v>
       </c>
       <c r="F108">
-        <v>10.463</v>
+        <v>10.462999999999999</v>
       </c>
       <c r="G108">
-        <v>235.99241562002</v>
+        <v>235.99241562002001</v>
       </c>
       <c r="H108">
         <v>0.8</v>
@@ -13029,10 +13069,10 @@
         <v>0.8</v>
       </c>
       <c r="J108">
-        <v>188.7939324960161</v>
+        <v>188.79393249601611</v>
       </c>
       <c r="K108">
-        <v>188.7939324960161</v>
+        <v>188.79393249601611</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -13041,7 +13081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -13082,7 +13122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -13123,7 +13163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -13143,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>5.881366283</v>
+        <v>5.8813662830000002</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -13155,16 +13195,16 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>5.881366283</v>
+        <v>5.8813662830000002</v>
       </c>
       <c r="L111">
-        <v>5.881366283</v>
+        <v>5.8813662830000002</v>
       </c>
       <c r="M111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -13181,10 +13221,10 @@
         <v>225</v>
       </c>
       <c r="F112">
-        <v>0.584</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="G112">
-        <v>8.138946785</v>
+        <v>8.1389467849999999</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -13196,16 +13236,16 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>8.138946785</v>
+        <v>8.1389467849999999</v>
       </c>
       <c r="L112">
-        <v>8.138946785</v>
+        <v>8.1389467849999999</v>
       </c>
       <c r="M112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -13225,7 +13265,7 @@
         <v>2.9</v>
       </c>
       <c r="G113">
-        <v>84.879744</v>
+        <v>84.879744000000002</v>
       </c>
       <c r="H113">
         <v>0.16</v>
@@ -13237,16 +13277,16 @@
         <v>13.58075904</v>
       </c>
       <c r="K113">
-        <v>84.879744</v>
+        <v>84.879744000000002</v>
       </c>
       <c r="L113">
-        <v>71.29898496</v>
+        <v>71.298984959999999</v>
       </c>
       <c r="M113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -13287,7 +13327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -13307,7 +13347,7 @@
         <v>1.9</v>
       </c>
       <c r="G115">
-        <v>2.446347445</v>
+        <v>2.4463474449999998</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -13319,16 +13359,16 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>2.446347445</v>
+        <v>2.4463474449999998</v>
       </c>
       <c r="L115">
-        <v>2.446347445</v>
+        <v>2.4463474449999998</v>
       </c>
       <c r="M115">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -13348,7 +13388,7 @@
         <v>1.7</v>
       </c>
       <c r="G116">
-        <v>14.607285</v>
+        <v>14.607284999999999</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -13357,10 +13397,10 @@
         <v>1</v>
       </c>
       <c r="J116">
-        <v>14.607285</v>
+        <v>14.607284999999999</v>
       </c>
       <c r="K116">
-        <v>14.607285</v>
+        <v>14.607284999999999</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -13369,7 +13409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -13389,7 +13429,7 @@
         <v>0.439</v>
       </c>
       <c r="G117">
-        <v>4.459192214</v>
+        <v>4.4591922139999998</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -13401,16 +13441,16 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>4.459192214</v>
+        <v>4.4591922139999998</v>
       </c>
       <c r="L117">
-        <v>4.459192214</v>
+        <v>4.4591922139999998</v>
       </c>
       <c r="M117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -13439,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="J118">
-        <v>29.2825334694945</v>
+        <v>29.282533469494499</v>
       </c>
       <c r="K118">
         <v>195.21688979663</v>
@@ -13451,7 +13491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -13471,7 +13511,7 @@
         <v>1</v>
       </c>
       <c r="G119">
-        <v>36.6619917794</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -13483,16 +13523,16 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>36.6619917794</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="L119">
-        <v>36.6619917794</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="M119">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -13512,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="G120">
-        <v>36.6619917794</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -13524,16 +13564,16 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>36.6619917794</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="L120">
-        <v>36.6619917794</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="M120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -13553,7 +13593,7 @@
         <v>1</v>
       </c>
       <c r="G121">
-        <v>36.6619917794</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -13565,16 +13605,16 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>36.6619917794</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="L121">
-        <v>36.6619917794</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="M121">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -13609,13 +13649,13 @@
         <v>107.42083638742</v>
       </c>
       <c r="L122">
-        <v>21.48416727748399</v>
+        <v>21.484167277483991</v>
       </c>
       <c r="M122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -13635,7 +13675,7 @@
         <v>1</v>
       </c>
       <c r="G123">
-        <v>295.52623265906</v>
+        <v>295.52623265905999</v>
       </c>
       <c r="H123">
         <v>0.85</v>
@@ -13647,16 +13687,16 @@
         <v>251.197297760201</v>
       </c>
       <c r="K123">
-        <v>295.52623265906</v>
+        <v>295.52623265905999</v>
       </c>
       <c r="L123">
-        <v>44.32893489885902</v>
+        <v>44.328934898859018</v>
       </c>
       <c r="M123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -13676,7 +13716,7 @@
         <v>1</v>
       </c>
       <c r="G124">
-        <v>227.0603541915999</v>
+        <v>227.06035419159991</v>
       </c>
       <c r="H124">
         <v>0.95</v>
@@ -13685,10 +13725,10 @@
         <v>1</v>
       </c>
       <c r="J124">
-        <v>215.7073364820199</v>
+        <v>215.70733648201991</v>
       </c>
       <c r="K124">
-        <v>227.0603541915999</v>
+        <v>227.06035419159991</v>
       </c>
       <c r="L124">
         <v>11.35301770958</v>
@@ -13697,7 +13737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -13714,10 +13754,10 @@
         <v>225</v>
       </c>
       <c r="F125">
-        <v>1.775</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="G125">
-        <v>28.57718902755</v>
+        <v>28.577189027549998</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -13729,16 +13769,16 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>8.573156708265</v>
+        <v>8.5731567082649995</v>
       </c>
       <c r="L125">
-        <v>8.573156708265</v>
+        <v>8.5731567082649995</v>
       </c>
       <c r="M125">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -13758,7 +13798,7 @@
         <v>0.15</v>
       </c>
       <c r="G126">
-        <v>3.86036722576</v>
+        <v>3.8603672257600001</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -13767,10 +13807,10 @@
         <v>1</v>
       </c>
       <c r="J126">
-        <v>3.86036722576</v>
+        <v>3.8603672257600001</v>
       </c>
       <c r="K126">
-        <v>3.86036722576</v>
+        <v>3.8603672257600001</v>
       </c>
       <c r="L126">
         <v>0</v>
@@ -13779,7 +13819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -13799,7 +13839,7 @@
         <v>1</v>
       </c>
       <c r="G127">
-        <v>38.92932327296001</v>
+        <v>38.929323272960012</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -13808,10 +13848,10 @@
         <v>1</v>
       </c>
       <c r="J127">
-        <v>38.92932327296001</v>
+        <v>38.929323272960012</v>
       </c>
       <c r="K127">
-        <v>38.92932327296001</v>
+        <v>38.929323272960012</v>
       </c>
       <c r="L127">
         <v>0</v>
@@ -13820,7 +13860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -13840,7 +13880,7 @@
         <v>4</v>
       </c>
       <c r="G128">
-        <v>62.86197823855999</v>
+        <v>62.861978238559992</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -13849,10 +13889,10 @@
         <v>1</v>
       </c>
       <c r="J128">
-        <v>62.86197823855999</v>
+        <v>62.861978238559992</v>
       </c>
       <c r="K128">
-        <v>62.86197823855999</v>
+        <v>62.861978238559992</v>
       </c>
       <c r="L128">
         <v>0</v>
@@ -13861,7 +13901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -13902,7 +13942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -13922,7 +13962,7 @@
         <v>1</v>
       </c>
       <c r="G130">
-        <v>405.9370896767701</v>
+        <v>405.93708967677009</v>
       </c>
       <c r="H130">
         <v>0.65</v>
@@ -13931,10 +13971,10 @@
         <v>1</v>
       </c>
       <c r="J130">
-        <v>263.8591082899006</v>
+        <v>263.85910828990058</v>
       </c>
       <c r="K130">
-        <v>405.9370896767701</v>
+        <v>405.93708967677009</v>
       </c>
       <c r="L130">
         <v>142.0779813868696</v>
@@ -13943,7 +13983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -13963,7 +14003,7 @@
         <v>1</v>
       </c>
       <c r="G131">
-        <v>320.0345936</v>
+        <v>320.03459359999999</v>
       </c>
       <c r="H131">
         <v>0.88</v>
@@ -13972,10 +14012,10 @@
         <v>0.88</v>
       </c>
       <c r="J131">
-        <v>281.630442368</v>
+        <v>281.63044236799999</v>
       </c>
       <c r="K131">
-        <v>281.630442368</v>
+        <v>281.63044236799999</v>
       </c>
       <c r="L131">
         <v>0</v>
@@ -13984,7 +14024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -14004,7 +14044,7 @@
         <v>1.65</v>
       </c>
       <c r="G132">
-        <v>54.40354011</v>
+        <v>54.403540110000002</v>
       </c>
       <c r="H132">
         <v>0.36</v>
@@ -14013,19 +14053,19 @@
         <v>1</v>
       </c>
       <c r="J132">
-        <v>19.5852744396</v>
+        <v>19.585274439599999</v>
       </c>
       <c r="K132">
-        <v>54.40354011</v>
+        <v>54.403540110000002</v>
       </c>
       <c r="L132">
-        <v>34.8182656704</v>
+        <v>34.818265670400002</v>
       </c>
       <c r="M132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -14066,7 +14106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -14086,7 +14126,7 @@
         <v>1</v>
       </c>
       <c r="G134">
-        <v>288.0794856939301</v>
+        <v>288.07948569393011</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -14107,7 +14147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -14127,7 +14167,7 @@
         <v>1</v>
       </c>
       <c r="G135">
-        <v>189.52974883929</v>
+        <v>189.52974883928999</v>
       </c>
       <c r="H135">
         <v>0.65</v>
@@ -14136,19 +14176,19 @@
         <v>1</v>
       </c>
       <c r="J135">
-        <v>123.1943367455385</v>
+        <v>123.19433674553849</v>
       </c>
       <c r="K135">
-        <v>189.52974883929</v>
+        <v>189.52974883928999</v>
       </c>
       <c r="L135">
-        <v>66.3354120937515</v>
+        <v>66.335412093751501</v>
       </c>
       <c r="M135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -14168,7 +14208,7 @@
         <v>1</v>
       </c>
       <c r="G136">
-        <v>41.82212335</v>
+        <v>41.822123349999998</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -14189,7 +14229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -14224,13 +14264,13 @@
         <v>118.56733669862</v>
       </c>
       <c r="L137">
-        <v>16.5994271378068</v>
+        <v>16.599427137806799</v>
       </c>
       <c r="M137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -14271,7 +14311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -14291,7 +14331,7 @@
         <v>3.96</v>
       </c>
       <c r="G139">
-        <v>71.52641001000001</v>
+        <v>71.526410010000006</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -14312,7 +14352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -14353,7 +14393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -14370,10 +14410,10 @@
         <v>225</v>
       </c>
       <c r="F141">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G141">
-        <v>16.387824</v>
+        <v>16.387823999999998</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -14394,7 +14434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -14435,7 +14475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -14476,7 +14516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -14517,7 +14557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -14558,7 +14598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -14599,7 +14639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -14646,14 +14686,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>270</v>
       </c>
@@ -14670,7 +14710,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -14678,7 +14718,7 @@
         <v>228</v>
       </c>
       <c r="C2">
-        <v>76.81999999999999</v>
+        <v>76.819999999999993</v>
       </c>
       <c r="D2">
         <v>496.54</v>
@@ -14690,7 +14730,7 @@
         <v>445.45</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -14698,19 +14738,19 @@
         <v>229</v>
       </c>
       <c r="C3">
-        <v>432.94823525</v>
+        <v>432.94823524999998</v>
       </c>
       <c r="D3">
-        <v>432.94823525</v>
+        <v>432.94823524999998</v>
       </c>
       <c r="E3">
         <v>347.71</v>
       </c>
       <c r="F3">
-        <v>85.23823525000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>85.238235250000059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -14718,19 +14758,19 @@
         <v>230</v>
       </c>
       <c r="C4">
-        <v>689.4575</v>
+        <v>689.45749999999998</v>
       </c>
       <c r="D4">
-        <v>689.4575</v>
+        <v>689.45749999999998</v>
       </c>
       <c r="E4">
-        <v>625.9299999999999</v>
+        <v>625.92999999999995</v>
       </c>
       <c r="F4">
-        <v>63.52750000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>63.527500000000032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -14738,19 +14778,19 @@
         <v>231</v>
       </c>
       <c r="C5">
-        <v>710.51707251789</v>
+        <v>710.51707251789003</v>
       </c>
       <c r="D5">
-        <v>710.51707251789</v>
+        <v>710.51707251789003</v>
       </c>
       <c r="E5">
-        <v>714.6900000000001</v>
+        <v>714.69</v>
       </c>
       <c r="F5">
-        <v>-4.172927482110026</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>-4.1729274821100262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -14761,16 +14801,16 @@
         <v>758.808006288</v>
       </c>
       <c r="D6">
-        <v>767.577281299</v>
+        <v>767.57728129899999</v>
       </c>
       <c r="E6">
         <v>575.15</v>
       </c>
       <c r="F6">
-        <v>192.427281299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>192.42728129899999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -14778,19 +14818,19 @@
         <v>233</v>
       </c>
       <c r="C7">
-        <v>774.68816500937</v>
+        <v>774.68816500936998</v>
       </c>
       <c r="D7">
-        <v>774.68816500937</v>
+        <v>774.68816500936998</v>
       </c>
       <c r="E7">
         <v>837.25</v>
       </c>
       <c r="F7">
-        <v>-62.56183499063002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-62.561834990630018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -14798,19 +14838,19 @@
         <v>234</v>
       </c>
       <c r="C8">
-        <v>603.9618708962</v>
+        <v>603.96187089620003</v>
       </c>
       <c r="D8">
-        <v>812.3426018512</v>
+        <v>812.34260185120002</v>
       </c>
       <c r="E8">
-        <v>565.0700000000001</v>
+        <v>565.07000000000005</v>
       </c>
       <c r="F8">
-        <v>247.2726018512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>247.27260185119999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -14830,7 +14870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -14838,10 +14878,10 @@
         <v>235</v>
       </c>
       <c r="C10">
-        <v>715.8438359200001</v>
+        <v>715.84383592000006</v>
       </c>
       <c r="D10">
-        <v>715.8438359200001</v>
+        <v>715.84383592000006</v>
       </c>
       <c r="E10">
         <v>712.33</v>
@@ -14850,7 +14890,7 @@
         <v>3.51383592000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -14858,19 +14898,19 @@
         <v>236</v>
       </c>
       <c r="C11">
-        <v>577.1799</v>
+        <v>577.17989999999998</v>
       </c>
       <c r="D11">
-        <v>835.8875</v>
+        <v>835.88750000000005</v>
       </c>
       <c r="E11">
         <v>409.68</v>
       </c>
       <c r="F11">
-        <v>426.2075</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>426.20749999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -14878,7 +14918,7 @@
         <v>237</v>
       </c>
       <c r="C12">
-        <v>539.5805</v>
+        <v>539.58050000000003</v>
       </c>
       <c r="D12">
         <v>832.12</v>
@@ -14890,7 +14930,7 @@
         <v>309.26</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -14898,19 +14938,19 @@
         <v>238</v>
       </c>
       <c r="C13">
-        <v>913.26344664162</v>
+        <v>913.26344664162002</v>
       </c>
       <c r="D13">
-        <v>913.26344664162</v>
+        <v>913.26344664162002</v>
       </c>
       <c r="E13">
         <v>705.59</v>
       </c>
       <c r="F13">
-        <v>207.67344664162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>207.67344664161999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -14918,19 +14958,19 @@
         <v>239</v>
       </c>
       <c r="C14">
-        <v>635.3299999999999</v>
+        <v>635.32999999999993</v>
       </c>
       <c r="D14">
         <v>1002.63</v>
       </c>
       <c r="E14">
-        <v>647.2</v>
+        <v>647.20000000000005</v>
       </c>
       <c r="F14">
-        <v>355.4299999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>355.42999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -14938,7 +14978,7 @@
         <v>240</v>
       </c>
       <c r="C15">
-        <v>752.9122</v>
+        <v>752.91219999999998</v>
       </c>
       <c r="D15">
         <v>857</v>
@@ -14947,10 +14987,10 @@
         <v>806.89</v>
       </c>
       <c r="F15">
-        <v>50.11000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>50.110000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -14958,10 +14998,10 @@
         <v>241</v>
       </c>
       <c r="C16">
-        <v>616.92</v>
+        <v>616.91999999999996</v>
       </c>
       <c r="D16">
-        <v>616.92</v>
+        <v>616.91999999999996</v>
       </c>
       <c r="E16">
         <v>333.94</v>
@@ -14970,7 +15010,7 @@
         <v>282.98</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -14978,19 +15018,19 @@
         <v>242</v>
       </c>
       <c r="C17">
-        <v>738.9880000000001</v>
+        <v>738.98800000000006</v>
       </c>
       <c r="D17">
-        <v>779.1700000000001</v>
+        <v>779.17000000000007</v>
       </c>
       <c r="E17">
         <v>721.62</v>
       </c>
       <c r="F17">
-        <v>57.55000000000007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>57.550000000000068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -14998,19 +15038,19 @@
         <v>243</v>
       </c>
       <c r="C18">
-        <v>1568.14570868</v>
+        <v>1568.1457086800001</v>
       </c>
       <c r="D18">
-        <v>1568.14570868</v>
+        <v>1568.1457086800001</v>
       </c>
       <c r="E18">
         <v>1451.95</v>
       </c>
       <c r="F18">
-        <v>116.1957086800003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>116.19570868000029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -15018,19 +15058,19 @@
         <v>244</v>
       </c>
       <c r="C19">
-        <v>640.7482135820001</v>
+        <v>640.74821358200006</v>
       </c>
       <c r="D19">
-        <v>1214.56089693</v>
+        <v>1214.5608969299999</v>
       </c>
       <c r="E19">
         <v>711.02</v>
       </c>
       <c r="F19">
-        <v>503.5408969300001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>503.54089693000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -15038,19 +15078,19 @@
         <v>245</v>
       </c>
       <c r="C20">
-        <v>183.603762314808</v>
+        <v>183.60376231480799</v>
       </c>
       <c r="D20">
-        <v>847.92598431684</v>
+        <v>847.92598431683996</v>
       </c>
       <c r="E20">
         <v>331.35</v>
       </c>
       <c r="F20">
-        <v>516.5759843168399</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>516.57598431683994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -15058,7 +15098,7 @@
         <v>246</v>
       </c>
       <c r="C21">
-        <v>999.4896978999998</v>
+        <v>999.48969789999978</v>
       </c>
       <c r="D21">
         <v>1009.98228643</v>
@@ -15067,10 +15107,10 @@
         <v>501.12</v>
       </c>
       <c r="F21">
-        <v>508.8622864299999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>508.86228642999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -15081,16 +15121,16 @@
         <v>224.778483045</v>
       </c>
       <c r="D22">
-        <v>927.7448927500002</v>
+        <v>927.74489275000019</v>
       </c>
       <c r="E22">
         <v>268.24</v>
       </c>
       <c r="F22">
-        <v>659.5048927500002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>659.50489275000018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -15098,19 +15138,19 @@
         <v>248</v>
       </c>
       <c r="C23">
-        <v>274.3323725055105</v>
+        <v>274.33237250551048</v>
       </c>
       <c r="D23">
-        <v>672.5314159178458</v>
+        <v>672.53141591784583</v>
       </c>
       <c r="E23">
         <v>281.05</v>
       </c>
       <c r="F23">
-        <v>391.4814159178458</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>391.48141591784582</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -15118,19 +15158,19 @@
         <v>249</v>
       </c>
       <c r="C24">
-        <v>658.492972089437</v>
+        <v>658.49297208943699</v>
       </c>
       <c r="D24">
-        <v>744.232248683625</v>
+        <v>744.23224868362502</v>
       </c>
       <c r="E24">
         <v>720.33</v>
       </c>
       <c r="F24">
-        <v>23.90224868362498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>23.902248683624979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -15150,7 +15190,7 @@
         <v>258.7762001492996</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -15158,7 +15198,7 @@
         <v>251</v>
       </c>
       <c r="C26">
-        <v>790.2370714038522</v>
+        <v>790.23707140385216</v>
       </c>
       <c r="D26">
         <v>1050.06815769268</v>
@@ -15167,10 +15207,10 @@
         <v>749.37</v>
       </c>
       <c r="F26">
-        <v>300.6981576926802</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>300.69815769268018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -15190,7 +15230,7 @@
         <v>-501.12</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -15201,16 +15241,16 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>894.6800000000001</v>
+        <v>894.68000000000006</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>894.6800000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>894.68000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -15230,7 +15270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -15250,7 +15290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -15270,7 +15310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -15290,7 +15330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -15310,7 +15350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -15330,7 +15370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -15350,7 +15390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -15370,7 +15410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -15390,7 +15430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -15410,7 +15450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -15436,14 +15476,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15466,7 +15506,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -15480,19 +15520,19 @@
         <v>35</v>
       </c>
       <c r="E2">
-        <v>629.8337877993731</v>
+        <v>629.83378779937311</v>
       </c>
       <c r="F2">
-        <v>646.43321493718</v>
+        <v>646.43321493717997</v>
       </c>
       <c r="G2">
         <v>291.81</v>
       </c>
       <c r="H2">
-        <v>354.62321493718</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>354.62321493718002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -15518,7 +15558,7 @@
         <v>44.79</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -15532,19 +15572,19 @@
         <v>37</v>
       </c>
       <c r="E4">
-        <v>4909.118857994691</v>
+        <v>4909.1188579946911</v>
       </c>
       <c r="F4">
-        <v>5919.373533374999</v>
+        <v>5919.3735333749992</v>
       </c>
       <c r="G4">
         <v>6503.97</v>
       </c>
       <c r="H4">
-        <v>-584.5964666250011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-584.59646662500109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -15558,19 +15598,19 @@
         <v>37</v>
       </c>
       <c r="E5">
-        <v>216.37262222296</v>
+        <v>216.37262222295999</v>
       </c>
       <c r="F5">
-        <v>368.23859756116</v>
+        <v>368.23859756116002</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>368.23859756116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>368.23859756116002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -15584,19 +15624,19 @@
         <v>37</v>
       </c>
       <c r="E6">
-        <v>1650.804660007033</v>
+        <v>1650.8046600070329</v>
       </c>
       <c r="F6">
-        <v>2676.51834647592</v>
+        <v>2676.5183464759202</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2676.51834647592</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>2676.5183464759202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -15622,7 +15662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -15645,10 +15685,10 @@
         <v>2546.54</v>
       </c>
       <c r="H8">
-        <v>1210.553345404824</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>1210.5533454048241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -15662,7 +15702,7 @@
         <v>39</v>
       </c>
       <c r="E9">
-        <v>76.81999999999999</v>
+        <v>76.819999999999993</v>
       </c>
       <c r="F9">
         <v>451.75</v>
@@ -15674,7 +15714,7 @@
         <v>400.66</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -15700,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -15726,7 +15766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -15740,10 +15780,10 @@
         <v>42</v>
       </c>
       <c r="E12">
-        <v>6093.142193146801</v>
+        <v>6093.1421931468012</v>
       </c>
       <c r="F12">
-        <v>7331.220028008795</v>
+        <v>7331.2200280087955</v>
       </c>
       <c r="G12">
         <v>5833.04</v>
@@ -15752,7 +15792,7 @@
         <v>1498.180028008795</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -15778,7 +15818,7 @@
         <v>120.5563642764902</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -15804,7 +15844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -15830,7 +15870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -15862,268 +15902,296 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="I11:J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C2">
-        <v>629.8337877993731</v>
-      </c>
-      <c r="D2">
-        <v>646.43321493718</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="4">
+        <v>629.83000000000004</v>
+      </c>
+      <c r="D2" s="4">
+        <v>646.42999999999995</v>
+      </c>
+      <c r="E2" s="4">
         <v>291.81</v>
       </c>
-      <c r="F2">
-        <v>354.62321493718</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F2" s="4">
+        <v>354.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
         <v>44.79</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
         <v>44.79</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C4">
-        <v>6776.296140224684</v>
-      </c>
-      <c r="D4">
-        <v>8964.130477412078</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="4">
+        <v>6776.3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8964.1299999999992</v>
+      </c>
+      <c r="E4" s="4">
         <v>6503.97</v>
       </c>
-      <c r="F4">
-        <v>2460.160477412078</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
+      <c r="F4" s="4">
+        <v>2460.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C5">
-        <v>2450.151093022128</v>
-      </c>
-      <c r="D5">
-        <v>3757.093345404824</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="4">
+        <v>2450.15</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3757.09</v>
+      </c>
+      <c r="E5" s="4">
         <v>2546.54</v>
       </c>
-      <c r="F5">
-        <v>1210.553345404824</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
+      <c r="F5" s="4">
+        <v>1210.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C6">
-        <v>76.81999999999999</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="4">
+        <v>76.819999999999993</v>
+      </c>
+      <c r="D6" s="4">
         <v>451.75</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>51.09</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>400.66</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9">
-        <v>6093.142193146801</v>
-      </c>
-      <c r="D9">
-        <v>7331.220028008795</v>
-      </c>
-      <c r="E9">
+      <c r="C9" s="4">
+        <v>6093.14</v>
+      </c>
+      <c r="D9" s="4">
+        <v>7331.22</v>
+      </c>
+      <c r="E9" s="4">
         <v>5833.04</v>
       </c>
-      <c r="F9">
-        <v>1498.180028008795</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
+      <c r="F9" s="4">
+        <v>1498.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>120.5563642764902</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>120.5563642764902</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>120.56</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>120.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <f>SUM(C2:C13)</f>
+        <v>16026.240000000002</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" ref="D14:F14" si="0">SUM(D2:D13)</f>
+        <v>21315.97</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>15226.45</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>6089.52</v>
       </c>
     </row>
   </sheetData>

--- a/Civilworks cost/RADP Preparations/Kishoregonj/Projecttion_output.xlsx
+++ b/Civilworks cost/RADP Preparations/Kishoregonj/Projecttion_output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Structure_Type" sheetId="1" r:id="rId1"/>
@@ -917,12 +917,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -965,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -982,6 +988,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14689,15 +14707,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>286</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -14717,13 +14744,13 @@
       <c r="B2" t="s">
         <v>228</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="10">
         <v>76.819999999999993</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>496.54</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <v>51.09</v>
       </c>
       <c r="F2">
@@ -14737,13 +14764,13 @@
       <c r="B3" t="s">
         <v>229</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>432.94823524999998</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>432.94823524999998</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7">
         <v>347.71</v>
       </c>
       <c r="F3">
@@ -14757,13 +14784,13 @@
       <c r="B4" t="s">
         <v>230</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="10">
         <v>689.45749999999998</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>689.45749999999998</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>625.92999999999995</v>
       </c>
       <c r="F4">
@@ -14777,13 +14804,13 @@
       <c r="B5" t="s">
         <v>231</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <v>710.51707251789003</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>710.51707251789003</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>714.69</v>
       </c>
       <c r="F5">
@@ -14797,13 +14824,13 @@
       <c r="B6" t="s">
         <v>232</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="10">
         <v>758.808006288</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>767.57728129899999</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>575.15</v>
       </c>
       <c r="F6">
@@ -14817,13 +14844,13 @@
       <c r="B7" t="s">
         <v>233</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="10">
         <v>774.68816500936998</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>774.68816500936998</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>837.25</v>
       </c>
       <c r="F7">
@@ -14837,13 +14864,13 @@
       <c r="B8" t="s">
         <v>234</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="10">
         <v>603.96187089620003</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>812.34260185120002</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>565.07000000000005</v>
       </c>
       <c r="F8">
@@ -14857,13 +14884,13 @@
       <c r="B9" t="s">
         <v>271</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
         <v>0</v>
       </c>
       <c r="F9">
@@ -14877,13 +14904,13 @@
       <c r="B10" t="s">
         <v>235</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="10">
         <v>715.84383592000006</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>715.84383592000006</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>712.33</v>
       </c>
       <c r="F10">
@@ -14897,13 +14924,13 @@
       <c r="B11" t="s">
         <v>236</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="10">
         <v>577.17989999999998</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>835.88750000000005</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>409.68</v>
       </c>
       <c r="F11">
@@ -14917,13 +14944,13 @@
       <c r="B12" t="s">
         <v>237</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="10">
         <v>539.58050000000003</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>832.12</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>522.86</v>
       </c>
       <c r="F12">
@@ -14937,13 +14964,13 @@
       <c r="B13" t="s">
         <v>238</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="10">
         <v>913.26344664162002</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>913.26344664162002</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <v>705.59</v>
       </c>
       <c r="F13">
@@ -14957,13 +14984,13 @@
       <c r="B14" t="s">
         <v>239</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="10">
         <v>635.32999999999993</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>1002.63</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>647.20000000000005</v>
       </c>
       <c r="F14">
@@ -14977,13 +15004,13 @@
       <c r="B15" t="s">
         <v>240</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="10">
         <v>752.91219999999998</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>857</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>806.89</v>
       </c>
       <c r="F15">
@@ -14997,13 +15024,13 @@
       <c r="B16" t="s">
         <v>241</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="10">
         <v>616.91999999999996</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>616.91999999999996</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>333.94</v>
       </c>
       <c r="F16">
@@ -15017,13 +15044,13 @@
       <c r="B17" t="s">
         <v>242</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="10">
         <v>738.98800000000006</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <v>779.17000000000007</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>721.62</v>
       </c>
       <c r="F17">
@@ -15037,13 +15064,13 @@
       <c r="B18" t="s">
         <v>243</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="10">
         <v>1568.1457086800001</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="7">
         <v>1568.1457086800001</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="7">
         <v>1451.95</v>
       </c>
       <c r="F18">
@@ -15057,13 +15084,13 @@
       <c r="B19" t="s">
         <v>244</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="10">
         <v>640.74821358200006</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <v>1214.5608969299999</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="7">
         <v>711.02</v>
       </c>
       <c r="F19">
@@ -15074,19 +15101,19 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="11">
         <v>183.60376231480799</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
         <v>847.92598431683996</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="8">
         <v>331.35</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
         <v>516.57598431683994</v>
       </c>
     </row>
@@ -15097,13 +15124,13 @@
       <c r="B21" t="s">
         <v>246</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="10">
         <v>999.48969789999978</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>1009.98228643</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>501.12</v>
       </c>
       <c r="F21">
@@ -15117,13 +15144,13 @@
       <c r="B22" t="s">
         <v>247</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="10">
         <v>224.778483045</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
         <v>927.74489275000019</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="7">
         <v>268.24</v>
       </c>
       <c r="F22">
@@ -15137,13 +15164,13 @@
       <c r="B23" t="s">
         <v>248</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="10">
         <v>274.33237250551048</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="7">
         <v>672.53141591784583</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="7">
         <v>281.05</v>
       </c>
       <c r="F23">
@@ -15157,13 +15184,13 @@
       <c r="B24" t="s">
         <v>249</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="10">
         <v>658.49297208943699</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <v>744.23224868362502</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="7">
         <v>720.33</v>
       </c>
       <c r="F24">
@@ -15177,13 +15204,13 @@
       <c r="B25" t="s">
         <v>250</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="10">
         <v>1149.1962001493</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="7">
         <v>1149.1962001493</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="7">
         <v>890.42</v>
       </c>
       <c r="F25">
@@ -15197,13 +15224,13 @@
       <c r="B26" t="s">
         <v>251</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="10">
         <v>790.23707140385216</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="7">
         <v>1050.06815769268</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="7">
         <v>749.37</v>
       </c>
       <c r="F26">
@@ -15217,13 +15244,13 @@
       <c r="B27" t="s">
         <v>252</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
         <v>501.12</v>
       </c>
       <c r="F27">
@@ -15237,13 +15264,13 @@
       <c r="B28" t="s">
         <v>253</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="10">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
         <v>894.68000000000006</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="7">
         <v>0</v>
       </c>
       <c r="F28">
@@ -15257,13 +15284,13 @@
       <c r="B29" t="s">
         <v>272</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
+      <c r="C29" s="10">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
         <v>0</v>
       </c>
       <c r="F29">
@@ -15277,13 +15304,13 @@
       <c r="B30" t="s">
         <v>273</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
+      <c r="C30" s="10">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
         <v>0</v>
       </c>
       <c r="F30">
@@ -15297,13 +15324,13 @@
       <c r="B31" t="s">
         <v>274</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="C31" s="10">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
         <v>0</v>
       </c>
       <c r="F31">
@@ -15317,13 +15344,13 @@
       <c r="B32" t="s">
         <v>275</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
+      <c r="C32" s="10">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
         <v>0</v>
       </c>
       <c r="F32">
@@ -15337,13 +15364,13 @@
       <c r="B33" t="s">
         <v>276</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
+      <c r="C33" s="10">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
         <v>0</v>
       </c>
       <c r="F33">
@@ -15357,13 +15384,13 @@
       <c r="B34" t="s">
         <v>277</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
+      <c r="C34" s="10">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
         <v>0</v>
       </c>
       <c r="F34">
@@ -15377,13 +15404,13 @@
       <c r="B35" t="s">
         <v>278</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
+      <c r="C35" s="10">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
         <v>0</v>
       </c>
       <c r="F35">
@@ -15397,13 +15424,13 @@
       <c r="B36" t="s">
         <v>279</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
+      <c r="C36" s="10">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
         <v>0</v>
       </c>
       <c r="F36">
@@ -15417,13 +15444,13 @@
       <c r="B37" t="s">
         <v>280</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
+      <c r="C37" s="10">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7">
         <v>0</v>
       </c>
       <c r="F37">
@@ -15437,13 +15464,13 @@
       <c r="B38" t="s">
         <v>281</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
+      <c r="C38" s="10">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7">
         <v>0</v>
       </c>
       <c r="F38">
@@ -15457,13 +15484,13 @@
       <c r="B39" t="s">
         <v>282</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
+      <c r="C39" s="10">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7">
         <v>0</v>
       </c>
       <c r="F39">
@@ -15905,7 +15932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="I11:J11"/>
     </sheetView>
   </sheetViews>
